--- a/整理的数据/fav-buy转化率/图表/fav-buy-10days.xlsx
+++ b/整理的数据/fav-buy转化率/图表/fav-buy-10days.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8280"/>
+    <workbookView windowWidth="14617" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="fav-buy-10days" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,13 +47,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -69,14 +94,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,9 +115,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,32 +139,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,34 +170,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,19 +200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +224,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +272,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,31 +338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,91 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +391,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,21 +436,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -435,6 +446,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,32 +485,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -499,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,6 +721,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>10days</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -730,31 +756,13 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -771,17 +779,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -959,7 +965,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -976,17 +981,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -1164,212 +1167,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'fav-buy-10days'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>percent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'fav-buy-10days'!$D$2:$D$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>0.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.384615384615384</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1379,18 +1176,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="300439038"/>
-        <c:axId val="183737165"/>
-      </c:lineChart>
+        <c:gapWidth val="182"/>
+        <c:overlap val="0"/>
+        <c:axId val="609952663"/>
+        <c:axId val="100951708"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="300439038"/>
+        <c:axId val="609952663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1426,7 +1223,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183737165"/>
+        <c:crossAx val="100951708"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,12 +1231,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183737165"/>
+        <c:axId val="100951708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1484,7 +1281,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300439038"/>
+        <c:crossAx val="609952663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,6 +1360,665 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>20days</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'fav-buy-10days'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fav</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'fav-buy-10days'!$B$2:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'fav-buy-10days'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>buy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'fav-buy-10days'!$C$2:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="632134355"/>
+        <c:axId val="11757064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="632134355"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11757064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11757064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632134355"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1603,8 +2059,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1712,6 +2208,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
@@ -2123,16 +3124,46 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>497205</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2913380" y="655955"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2140,12 +3171,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3568700" y="1041400"/>
-        <a:ext cx="5843905" cy="3967480"/>
+        <a:off x="3327400" y="1027430"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2414,8 +3445,8 @@
   <sheetPr/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="60" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C1" sqref="B$1:B$1048576 C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="3"/>
